--- a/xlsx/墨西哥湾_intext.xlsx
+++ b/xlsx/墨西哥湾_intext.xlsx
@@ -15,993 +15,1002 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>墨西哥湾</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_墨西哥湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>格兰德河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>流域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
+  </si>
+  <si>
+    <t>海湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>佛罗里达半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%9D%A6%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>尤卡坦半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>佛罗里达海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%9D%A6%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>尤卡坦海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%9A%96%E6%B5%81</t>
+  </si>
+  <si>
+    <t>墨西哥湾暖流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E5%9D%97%E6%9E%84%E9%80%A0%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>板块构造论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%BC%8F%E6%B2%B9%E4%BA%8B%E6%95%85</t>
+  </si>
+  <si>
+    <t>2010年墨西哥湾漏油事故</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/DOI</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>北冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E7%81%A3</t>
+  </si>
+  <si>
+    <t>阿蒙森湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>巴伦支海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BC%97%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>波弗特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>白令海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>楚科奇海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>东西伯利亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%A7%86%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>弗拉姆海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>格陵兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%A5%BF%E4%BA%9E%E7%81%A3</t>
+  </si>
+  <si>
+    <t>布西亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>喀拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>卡拉海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8D%B7%E5%A4%AB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉普捷夫海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>林肯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%E9%98%BF%E9%81%93%E5%A4%AB%E7%8E%8B%E5%AD%90%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>古斯塔夫阿道夫王子海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%9C%9D%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>伯朝拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%BE%B7%E7%88%BE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>旺德尔海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>白海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚得里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱琴海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿尔沃兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>群岛海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿根廷海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E7%81%A3</t>
+  </si>
+  <si>
+    <t>巴芬湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>巴利阿里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>波罗的海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
+  </si>
+  <si>
+    <t>比斯开湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
+  </si>
+  <si>
+    <t>波的尼亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BD%A9%E5%88%87%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>坎佩切湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%BF%AA%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>芬迪湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%BB%95%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>博滕海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>凯尔特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>戴维斯海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>丹麦海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%90%89%E5%88%A9%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>英吉利海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>福克斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E7%81%A3</t>
+  </si>
+  <si>
+    <t>芬兰湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BF%81%E7%81%A3</t>
+  </si>
+  <si>
+    <t>利翁湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>几内亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>缅因湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E7%81%A3</t>
+  </si>
+  <si>
+    <t>圣罗伦斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>委内瑞拉湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E6%A3%AE%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>哈德森湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E7%81%A3</t>
+  </si>
+  <si>
+    <t>詹姆斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱奥尼亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱尔兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E6%98%8E%E5%8E%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>伊尔明厄海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉布拉多海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%87%A1%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黎凡特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>利比亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>利古里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尔马拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>地中海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E6%89%98%E7%BF%81%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>米尔托翁海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
+  </si>
+  <si>
+    <t>北海 (大西洋)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>挪威海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
+  </si>
+  <si>
+    <t>圣罗伦斯海道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尾藻海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>奥兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚速海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>克里特海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B8%83%E9%87%8C%E5%BA%95%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>赫布里底海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>色雷斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>第勒尼安海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>印度洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BE%BE%E6%9B%BC%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>安达曼海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿拉伯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
+  </si>
+  <si>
+    <t>孟加拉湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>亚丁湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%96%80%E5%B7%B4%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>亚喀巴湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B4%9D%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>坎贝湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%98%A0%E5%A5%87%E7%81%A3</t>
+  </si>
+  <si>
+    <t>嘠奇湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
+  </si>
+  <si>
+    <t>阿曼湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>苏伊士湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%85%8B%E4%BB%A3%E5%A4%AB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉克代夫海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>莫桑比克海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>波斯湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>红海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%AD%E7%94%B2%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>马六甲海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E6%B1%B6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>帝汶海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%BC%97%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿拉弗拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%87%E9%87%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>峇里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E8%BE%BE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>班达海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>白令海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>俾斯麦海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>渤海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%92%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>保和海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%8E%AB%E7%89%B9%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>卡莫特斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E4%BC%AF%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>西里伯斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>台湾海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>巴士海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%98%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>塞兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>智利海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>珊瑚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>东海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E5%8B%92%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>弗洛勒斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>阿拉斯加湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>加利福尼亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A5%94%E5%A1%94%E5%88%A9%E4%BA%9E%E7%81%A3</t>
+  </si>
+  <si>
+    <t>卡奔塔利亚湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
+  </si>
+  <si>
+    <t>丰塞卡湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
+  </si>
+  <si>
+    <t>泰国湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>北部湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E9%BB%91%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>哈马黑拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爪哇海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>科罗海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%94%A1%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>望加锡海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%AD%AF%E5%8F%A4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马鲁古海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%81%A3</t>
+  </si>
+  <si>
+    <t>莫罗湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>菲律宾海</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Salish_Sea</t>
+  </si>
+  <si>
+    <t>en-Salish Sea</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%AD%A6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>萨武海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>日本海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%82%E9%9C%8D%E6%AC%A1%E5%85%8B%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>鄂霍次克海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%80%A8%E6%88%B6%E5%85%A7%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>濑户内海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%B8%83%E5%BB%B6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>锡布延海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>所罗门海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>南海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%A6%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>苏禄海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E6%9B%BC%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>塔斯曼海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B2%99%E9%84%A2%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>米沙鄢海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黄海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>南冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿蒙森海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E6%9E%97%E6%96%AF%E9%AB%98%E6%99%8B%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>别林斯高晋海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>英联邦海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%93%A1%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>宇航员海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>戴维斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%B0%94%E7%BB%B4%E5%B0%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>迪尔维尔海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BA%B7%E4%B8%83%E4%B8%96%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>哈康七世海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%89%8E%E5%88%97%E5%A4%AB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>拉扎列夫海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%91%9F%E7%88%BE-%E6%8B%89%E6%A3%AE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>里瑟尔-拉森海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A3%AE%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>莫森海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>罗斯海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%88%8D%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>斯科舍海</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Somov_Sea</t>
+  </si>
+  <si>
+    <t>en-Somov Sea</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BE%B7%E5%B0%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>威德尔海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B9%B9%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>咸海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
+  </si>
+  <si>
+    <t>索尔顿湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>死海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%B9%BE</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_墨西哥湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>格蘭德河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>流域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
-  </si>
-  <si>
-    <t>海灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>佛罗里达半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%9D%A6%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>尤卡坦半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>佛罗里达海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%9D%A6%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>尤卡坦海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%9A%96%E6%B5%81</t>
-  </si>
-  <si>
-    <t>墨西哥灣暖流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E5%9D%97%E6%9E%84%E9%80%A0%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>板块构造论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%BC%8F%E6%B2%B9%E4%BA%8B%E6%95%85</t>
-  </si>
-  <si>
-    <t>2010年墨西哥灣漏油事故</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/DOI</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>北冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E7%81%A3</t>
-  </si>
-  <si>
-    <t>阿蒙森灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>巴倫支海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BC%97%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>波弗特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>白令海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>楚科奇海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>东西伯利亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%A7%86%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>弗拉姆海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>格陵兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%A5%BF%E4%BA%9E%E7%81%A3</t>
-  </si>
-  <si>
-    <t>布西亞灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>喀拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>卡拉海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8D%B7%E5%A4%AB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉普捷夫海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>林肯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%E9%98%BF%E9%81%93%E5%A4%AB%E7%8E%8B%E5%AD%90%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>古斯塔夫阿道夫王子海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%9C%9D%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>伯朝拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%BE%B7%E7%88%BE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>旺德爾海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>白海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亚得里亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱琴海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿尔沃兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>群岛海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿根廷海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E7%81%A3</t>
-  </si>
-  <si>
-    <t>巴芬灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>巴利阿里海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>波罗的海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
-  </si>
-  <si>
-    <t>比斯開灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
-  </si>
-  <si>
-    <t>波的尼亞灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BD%A9%E5%88%87%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>坎佩切湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%BF%AA%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>芬迪湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%BB%95%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>博滕海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>凱爾特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>戴维斯海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>丹麦海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%90%89%E5%88%A9%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>英吉利海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>福克斯湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E7%81%A3</t>
-  </si>
-  <si>
-    <t>芬蘭灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BF%81%E7%81%A3</t>
-  </si>
-  <si>
-    <t>利翁灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>几内亚湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>缅因湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E7%81%A3</t>
-  </si>
-  <si>
-    <t>聖羅倫斯灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>委内瑞拉湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E6%A3%AE%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>哈德森湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E7%81%A3</t>
-  </si>
-  <si>
-    <t>詹姆斯灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱奥尼亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>愛爾蘭海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E6%98%8E%E5%8E%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>伊爾明厄海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉布拉多海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%87%A1%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黎凡特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>利比亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>利古里亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尔马拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>地中海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E6%89%98%E7%BF%81%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>米爾托翁海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
-  </si>
-  <si>
-    <t>北海 (大西洋)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>挪威海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
-  </si>
-  <si>
-    <t>聖羅倫斯海道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尾藻海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>奧蘭海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亞速海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>克里特海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B8%83%E9%87%8C%E5%BA%95%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>赫布里底海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>色雷斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>第勒尼安海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>印度洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BE%BE%E6%9B%BC%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>安达曼海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿拉伯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
-  </si>
-  <si>
-    <t>孟加拉灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>亚丁湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%96%80%E5%B7%B4%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>亚喀巴湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B4%9D%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>坎贝湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%98%A0%E5%A5%87%E7%81%A3</t>
-  </si>
-  <si>
-    <t>嘠奇灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
-  </si>
-  <si>
-    <t>阿曼灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>苏伊士湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%85%8B%E4%BB%A3%E5%A4%AB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉克代夫海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>莫桑比克海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>波斯湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>红海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%AD%E7%94%B2%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>马六甲海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E6%B1%B6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>帝汶海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%BC%97%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿拉弗拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%87%E9%87%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>峇里海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E8%BE%BE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>班达海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>白令海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>俾斯麦海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>渤海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%92%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>保和海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%8E%AB%E7%89%B9%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>卡莫特斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E4%BC%AF%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>西里伯斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>台灣海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>巴士海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%98%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>塞蘭海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>智利海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>珊瑚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>东海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E5%8B%92%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>弗洛勒斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>阿拉斯加湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>加利福尼亚湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A5%94%E5%A1%94%E5%88%A9%E4%BA%9E%E7%81%A3</t>
-  </si>
-  <si>
-    <t>卡奔塔利亞灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
-  </si>
-  <si>
-    <t>豐塞卡灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
-  </si>
-  <si>
-    <t>泰國灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>北部湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E9%BB%91%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>哈馬黑拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爪哇海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>科羅海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%94%A1%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>望加锡海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%AD%AF%E5%8F%A4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>馬魯古海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%81%A3</t>
-  </si>
-  <si>
-    <t>莫羅灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>菲律宾海</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Salish_Sea</t>
-  </si>
-  <si>
-    <t>en-Salish Sea</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%AD%A6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>萨武海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>日本海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%82%E9%9C%8D%E6%AC%A1%E5%85%8B%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>鄂霍次克海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%80%A8%E6%88%B6%E5%85%A7%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>瀨戶內海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%B8%83%E5%BB%B6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>錫布延海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>所罗门海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>南海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%A6%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>苏禄海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E6%9B%BC%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>塔斯曼海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B2%99%E9%84%A2%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>米沙鄢海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黄海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>南冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿蒙森海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E6%9E%97%E6%96%AF%E9%AB%98%E6%99%8B%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>别林斯高晋海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>英聯邦海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%93%A1%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>宇航員海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>戴維斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%B0%94%E7%BB%B4%E5%B0%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>迪尔维尔海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BA%B7%E4%B8%83%E4%B8%96%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>哈康七世海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%89%8E%E5%88%97%E5%A4%AB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>拉扎列夫海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%91%9F%E7%88%BE-%E6%8B%89%E6%A3%AE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>里瑟爾-拉森海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A3%AE%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>莫森海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>罗斯海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%88%8D%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>斯科舍海</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Somov_Sea</t>
-  </si>
-  <si>
-    <t>en-Somov Sea</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BE%B7%E5%B0%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>威德尔海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%B9%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>鹹海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>裡海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
-  </si>
-  <si>
-    <t>索爾頓湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>死海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>地理</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -6108,6 +6117,64 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>164</v>
+      </c>
+      <c r="E165" t="s">
+        <v>329</v>
+      </c>
+      <c r="F165" t="s">
+        <v>330</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>4</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>165</v>
+      </c>
+      <c r="E166" t="s">
+        <v>329</v>
+      </c>
+      <c r="F166" t="s">
+        <v>331</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>4</v>
+      </c>
+      <c r="I166" t="n">
         <v>3</v>
       </c>
     </row>
